--- a/186c-photos-and-tags/186c_tables_info.xlsx
+++ b/186c-photos-and-tags/186c_tables_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,42 @@
   </si>
   <si>
     <t>sunset</t>
+  </si>
+  <si>
+    <t>Link Table</t>
+  </si>
+  <si>
+    <t>Each photo links to zero or more tags</t>
+  </si>
+  <si>
+    <t>Each tags links to zero or more photos</t>
+  </si>
+  <si>
+    <t>class Photo &lt; ActiveRecord::Base</t>
+  </si>
+  <si>
+    <t>has_and_belongs_to_many :tags, join_table: "photos_tags",</t>
+  </si>
+  <si>
+    <t>class_name: "Tag", foreign_key: "photo_id",</t>
+  </si>
+  <si>
+    <t>association_foreign_key: "tag_id"</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>class Tag &lt; ActiveRecord::Base</t>
+  </si>
+  <si>
+    <t>has_and_belongs_to_many :photos, join_table: "photos_tags",</t>
+  </si>
+  <si>
+    <t>class_name: "Photo", foreign_key: "tag_id",</t>
+  </si>
+  <si>
+    <t>association_foreign_key: "photo_id"</t>
   </si>
 </sst>
 </file>
@@ -157,6 +193,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2581275" y="1571625"/>
+          <a:ext cx="38100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +537,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E8"/>
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +808,9 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -757,7 +847,9 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -777,7 +869,9 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -817,7 +911,9 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -838,7 +934,9 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -858,7 +956,9 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -878,7 +978,9 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -897,7 +999,9 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -937,7 +1041,9 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -958,7 +1064,9 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -978,7 +1086,9 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -998,7 +1108,9 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1017,7 +1129,9 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1079,6 +1193,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
